--- a/TestID/StudentList/Registrycs284.xlsx
+++ b/TestID/StudentList/Registrycs284.xlsx
@@ -197,7 +197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
